--- a/out/BPI12/results/result_10/prova_10.0_linux.xlsx
+++ b/out/BPI12/results/result_10/prova_10.0_linux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/result_26/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB26B44-0570-2A4F-A6F1-7F8A6B8DCC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6127314-9CED-4C70-BB6F-E111B7B1214A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="500" windowWidth="25560" windowHeight="17500" xr2:uid="{54841A03-5009-43B1-BA78-E43B18488EC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{54841A03-5009-43B1-BA78-E43B18488EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>APREACCEPTED</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>scartate</t>
   </si>
 </sst>
 </file>
@@ -652,19 +655,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB38946-0513-4C3E-8986-8150D1EE032E}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,10 +739,13 @@
         <v>22</v>
       </c>
       <c r="Z1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,12 +819,15 @@
         <f t="shared" ref="Y2:Y23" si="0">SUM(B2:W2)</f>
         <v>16</v>
       </c>
-      <c r="Z2" s="23">
+      <c r="Z2">
+        <v>2480</v>
+      </c>
+      <c r="AB2" s="23">
         <f>1-B2/Y2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,12 +901,15 @@
         <f t="shared" si="0"/>
         <v>703</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3">
+        <v>1024</v>
+      </c>
+      <c r="AB3" s="23">
         <f>1-C3/Y3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -970,12 +983,15 @@
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4">
+        <v>308</v>
+      </c>
+      <c r="AB4" s="23">
         <f>1-D4/Y4</f>
         <v>0.9120772946859903</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1049,12 +1065,15 @@
         <f t="shared" si="0"/>
         <v>1467</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5">
+        <v>221</v>
+      </c>
+      <c r="AB5" s="23">
         <f>1-E5/Y5</f>
         <v>0.53919563735514653</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1128,12 +1147,15 @@
         <f t="shared" si="0"/>
         <v>2378</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23">
         <f>1-F6/Y6</f>
         <v>0.32716568544995794</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1207,12 +1229,15 @@
         <f t="shared" si="0"/>
         <v>2378</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="23">
         <f>1-G7/Y7</f>
         <v>0.17535744322960467</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1286,12 +1311,15 @@
         <f t="shared" si="0"/>
         <v>6053</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8">
+        <v>2174</v>
+      </c>
+      <c r="AB8" s="23">
         <f>1-H8/Y8</f>
         <v>0.16372046918883199</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1365,12 +1393,15 @@
         <f t="shared" si="0"/>
         <v>6751</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="23">
         <f>1-I9/Y9</f>
         <v>0.1549400088875722</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1444,12 +1475,15 @@
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="23">
         <f>1-J10/Y10</f>
         <v>0.99473684210526314</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1523,12 +1557,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="23">
         <f>1-K11/Y11</f>
         <v>0.90233236151603502</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -1602,12 +1639,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="23">
         <f>1-L12/Y12</f>
         <v>0.99271137026239065</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1681,12 +1721,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z13" s="23">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="23">
         <f>1-M13/Y13</f>
         <v>0.95772594752186591</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1760,12 +1803,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z14" s="23">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="23">
         <f>1-N14/Y14</f>
         <v>0.70553935860058314</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -1839,12 +1885,15 @@
         <f t="shared" si="0"/>
         <v>2546</v>
       </c>
-      <c r="Z15" s="23">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="23">
         <f>1-O15/Y15</f>
         <v>0.44658287509819328</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
@@ -1918,12 +1967,15 @@
         <f t="shared" si="0"/>
         <v>1118</v>
       </c>
-      <c r="Z16" s="23">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="23">
         <f>1-P16/Y16</f>
         <v>0.78801431127012522</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1997,12 +2049,15 @@
         <f t="shared" si="0"/>
         <v>474</v>
       </c>
-      <c r="Z17" s="23">
+      <c r="Z17">
+        <v>1963</v>
+      </c>
+      <c r="AB17" s="23">
         <f>1-Q17/Y17</f>
         <v>0.98945147679324896</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -2076,12 +2131,15 @@
         <f t="shared" si="0"/>
         <v>701</v>
       </c>
-      <c r="Z18" s="23">
+      <c r="Z18">
+        <v>103</v>
+      </c>
+      <c r="AB18" s="23">
         <f>1-R18/Y18</f>
         <v>0.84308131241084161</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2155,12 +2213,15 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="Z19" s="23">
+      <c r="Z19">
+        <v>1811</v>
+      </c>
+      <c r="AB19" s="23">
         <f>1-S19/Y19</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
@@ -2234,12 +2295,15 @@
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="Z20" s="23">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="23">
         <f>1-T20/Y20</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>19</v>
       </c>
@@ -2313,12 +2377,15 @@
         <f t="shared" si="0"/>
         <v>3439</v>
       </c>
-      <c r="Z21" s="23">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="23">
         <f>1-U21/Y21</f>
         <v>0.47949985460889799</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
@@ -2392,12 +2459,15 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="Z22" s="23">
+      <c r="Z22">
+        <v>43</v>
+      </c>
+      <c r="AB22" s="23">
         <f>1-V22/Y22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>21</v>
       </c>
@@ -2471,12 +2541,15 @@
         <f t="shared" si="0"/>
         <v>2628</v>
       </c>
-      <c r="Z23" s="23">
+      <c r="Z23">
+        <v>1691</v>
+      </c>
+      <c r="AB23" s="23">
         <f>1-W23/Y23</f>
         <v>0.35692541856925419</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2572,8 +2645,12 @@
         <f>SUM(Y2:Y23)</f>
         <v>37008</v>
       </c>
+      <c r="Z25">
+        <f>SUM(Z2:Z23)</f>
+        <v>11818</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2670,7 +2747,7 @@
         <v>0.56152723735408561</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2767,7 +2844,7 @@
         <v>0.50478566014164949</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2864,7 +2941,7 @@
         <v>0.53164675745926171</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2873,7 +2950,7 @@
         <v>0.52071690876482168</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
